--- a/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_af_df_solar.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_af_df_solar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -472,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01387326584176977</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.02010323281716925</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -487,6 +490,9 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -497,28 +503,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.2808564231738034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1152694610778442</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01987251593550807</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.007266629401900505</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.03069817984243413</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001773049645390071</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2974789915966379</v>
+        <v>0.08728010825439783</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -528,27 +537,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09025270758122743</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.03859250851305335</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04987531172069822</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1275964391691395</v>
+        <v>0.01875</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.138702460850112</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -565,22 +577,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0671166104236969</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.05254332029066506</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002822201317027281</v>
+        <v>0.04808475957620192</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1578014184397165</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1915966386554618</v>
+        <v>0.07713125845737477</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -596,21 +611,24 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02362204724409451</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.003912800447177195</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.02770986145069275</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01241134751773049</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -627,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.1384790011350738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1022443890274315</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004703668861712136</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -643,6 +661,9 @@
       </c>
       <c r="I7" t="n">
         <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01449275362318841</v>
       </c>
     </row>
     <row r="8">
@@ -652,19 +673,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.2122166246851379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.410179640718562</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09186351706036719</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.04695360536612624</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.04373811464275997</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -673,7 +694,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2117647058823524</v>
+        <v>0.08525033829499322</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -689,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.02497162315550511</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01745635910224439</v>
+        <v>0.02124091671324763</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1712135465663222</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -705,6 +729,9 @@
       </c>
       <c r="I9" t="n">
         <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3864734299516917</v>
       </c>
     </row>
     <row r="10">
@@ -714,27 +741,30 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03971119133574007</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.1162790697674418</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.1475595913734393</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1022443890274315</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1632047477744807</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.02684563758389261</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -754,18 +784,21 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.01453325880380101</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008466603951081845</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03014184397163119</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -782,22 +815,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.02043132803632236</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02244389027431421</v>
+        <v>0.0150922302962549</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0451552210724365</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001773049645390071</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.03542673107890499</v>
       </c>
     </row>
     <row r="13">
@@ -813,21 +849,24 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01837270341207349</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.00558971492453885</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.01358326541700625</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01950354609929077</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -844,21 +883,24 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03149606299212604</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.023906547133931</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.007092198581560284</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -892,6 +934,9 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -906,21 +951,24 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07611548556430428</v>
+        <v>0.1225879682179342</v>
       </c>
       <c r="E16" t="n">
-        <v>0.135910224438903</v>
+        <v>0.1704863051984343</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2756349952963329</v>
+        <v>0.03259983700081499</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.6281250000000005</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2287234042553194</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -937,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03562054743157109</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.0271665308340125</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -952,6 +1000,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -968,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.01929625425652667</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02119700748129676</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009407337723424271</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -984,6 +1035,9 @@
       </c>
       <c r="I18" t="n">
         <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001610305958132045</v>
       </c>
     </row>
     <row r="19">
@@ -999,21 +1053,24 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002624671916010499</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.01788708775852432</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.01059494702526488</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1134751773049646</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1030,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1728533933258336</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.00111794298490777</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.1246943765281162</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1045,6 +1102,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1121,24 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1642294713160848</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.04918949133594177</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01128880526810913</v>
+        <v>0.115186090736212</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1099290780141845</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1109,6 +1172,9 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1117,28 +1183,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.1630982367758187</v>
       </c>
       <c r="C23" t="n">
-        <v>0.387724550898203</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1556055493063361</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.04751257685858012</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.09236620483564174</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0177304964539007</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2991596638655454</v>
+        <v>0.1204330175913398</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1154,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.03859250851305335</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04239401496259349</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1169,6 +1238,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,19 +1260,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.04415874790385683</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1119473189087487</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01063829787234042</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.07407407407407403</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.0005589714924538849</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009407337723424271</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1231,6 +1306,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1247,21 +1325,24 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.01929625425652667</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02119700748129676</v>
+        <v>0.02012297372833986</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03104421448730012</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.003125</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007092198581560284</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,21 +1359,24 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0412448443944507</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.008384572386808275</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.02662320021733225</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005319148936170213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1309,21 +1393,24 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.007874015748031494</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.03186137506987144</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.001901657158380875</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0762411347517731</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1340,21 +1427,24 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0007499062617172854</v>
+        <v>0.001135073779795687</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001246882793017456</v>
+        <v>0.05980994969256552</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03198494825964255</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1258865248226952</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1371,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.04426787741203178</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04862842892768077</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06961429915333957</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1387,6 +1477,9 @@
       </c>
       <c r="I31" t="n">
         <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1191626409017711</v>
       </c>
     </row>
     <row r="32">
@@ -1396,27 +1489,30 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8700361010830373</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.8139534883720939</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.09080590238365494</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1932668329177063</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03480714957666983</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.483679525222551</v>
+        <v>0.3499999999999993</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.7472035794183463</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1433,21 +1529,24 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.2145289443813848</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1895261845386539</v>
+        <v>0.08719955282280603</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1467544684854188</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2255192878338277</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.08724832214765106</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1464,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01612298462692163</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.01168160825862538</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1479,6 +1578,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1495,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.01475595913734393</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01620947630922694</v>
+        <v>0.00111794298490777</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04609595484477893</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1512,160 +1614,8 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
+      <c r="J35" t="n">
+        <v>0.07568438003220607</v>
       </c>
     </row>
   </sheetData>
